--- a/templates/vdo.xlsx
+++ b/templates/vdo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Direct" sheetId="16" r:id="rId1"/>
@@ -1382,10 +1382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF123"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5949,10 +5948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10513,10 +10511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="E63" sqref="E63:AE118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15581,7 +15578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
       <selection pane="topRight" activeCell="H64" sqref="H64"/>

--- a/templates/vdo.xlsx
+++ b/templates/vdo.xlsx
@@ -18,9 +18,6 @@
     <sheet name="Total" sheetId="15" r:id="rId4"/>
     <sheet name="SUM" sheetId="31" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -439,660 +436,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Total"/>
-      <sheetName val="Search"/>
-      <sheetName val="Display"/>
-      <sheetName val="Online VDO"/>
-      <sheetName val="YouTube"/>
-      <sheetName val="Facebook"/>
-      <sheetName val="Instagram"/>
-      <sheetName val="Twitter"/>
-      <sheetName val="Line"/>
-      <sheetName val="Instant Messaging"/>
-      <sheetName val="Social"/>
-      <sheetName val="Creative"/>
-      <sheetName val="Others"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>0</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0</v>
-          </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>0</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>0</v>
-          </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="D25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-          <cell r="D26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>0</v>
-          </cell>
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-          <cell r="D27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>0</v>
-          </cell>
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-          <cell r="D28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-          <cell r="C29">
-            <v>0</v>
-          </cell>
-          <cell r="D29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-          <cell r="D30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>0</v>
-          </cell>
-          <cell r="C31">
-            <v>0</v>
-          </cell>
-          <cell r="D31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>0</v>
-          </cell>
-          <cell r="D32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>0</v>
-          </cell>
-          <cell r="C33">
-            <v>0</v>
-          </cell>
-          <cell r="D33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>0</v>
-          </cell>
-          <cell r="D34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>0</v>
-          </cell>
-          <cell r="D35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>0</v>
-          </cell>
-          <cell r="C36">
-            <v>0</v>
-          </cell>
-          <cell r="D36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>0</v>
-          </cell>
-          <cell r="C37">
-            <v>0</v>
-          </cell>
-          <cell r="D37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>0</v>
-          </cell>
-          <cell r="C38">
-            <v>0</v>
-          </cell>
-          <cell r="D38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>0</v>
-          </cell>
-          <cell r="C39">
-            <v>0</v>
-          </cell>
-          <cell r="D39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>0</v>
-          </cell>
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-          <cell r="D40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>0</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-          <cell r="D41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>0</v>
-          </cell>
-          <cell r="C42">
-            <v>0</v>
-          </cell>
-          <cell r="D42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>0</v>
-          </cell>
-          <cell r="C43">
-            <v>0</v>
-          </cell>
-          <cell r="D43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>0</v>
-          </cell>
-          <cell r="C44">
-            <v>0</v>
-          </cell>
-          <cell r="D44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>0</v>
-          </cell>
-          <cell r="C45">
-            <v>0</v>
-          </cell>
-          <cell r="D45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>0</v>
-          </cell>
-          <cell r="C46">
-            <v>0</v>
-          </cell>
-          <cell r="D46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>0</v>
-          </cell>
-          <cell r="C47">
-            <v>0</v>
-          </cell>
-          <cell r="D47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>0</v>
-          </cell>
-          <cell r="C48">
-            <v>0</v>
-          </cell>
-          <cell r="D48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>0</v>
-          </cell>
-          <cell r="C49">
-            <v>0</v>
-          </cell>
-          <cell r="D49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>0</v>
-          </cell>
-          <cell r="C50">
-            <v>0</v>
-          </cell>
-          <cell r="D50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>0</v>
-          </cell>
-          <cell r="C51">
-            <v>0</v>
-          </cell>
-          <cell r="D51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>0</v>
-          </cell>
-          <cell r="C52">
-            <v>0</v>
-          </cell>
-          <cell r="D52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>0</v>
-          </cell>
-          <cell r="C53">
-            <v>0</v>
-          </cell>
-          <cell r="D53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>0</v>
-          </cell>
-          <cell r="C54">
-            <v>0</v>
-          </cell>
-          <cell r="D54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>0</v>
-          </cell>
-          <cell r="C55">
-            <v>0</v>
-          </cell>
-          <cell r="D55">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>0</v>
-          </cell>
-          <cell r="C56">
-            <v>0</v>
-          </cell>
-          <cell r="D56">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>0</v>
-          </cell>
-          <cell r="C57">
-            <v>0</v>
-          </cell>
-          <cell r="D57">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>0</v>
-          </cell>
-          <cell r="C58">
-            <v>0</v>
-          </cell>
-          <cell r="D58">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12878,15 +12221,12 @@
         <v>0</v>
       </c>
       <c r="B63" s="7">
-        <f>B3*'[1]Online VDO'!B3</f>
         <v>0</v>
       </c>
       <c r="C63" s="7">
-        <f>C3*'[1]Online VDO'!C3</f>
         <v>0</v>
       </c>
       <c r="D63" s="7">
-        <f>D3*'[1]Online VDO'!D3</f>
         <v>0</v>
       </c>
       <c r="E63" s="7"/>
@@ -12926,15 +12266,12 @@
         <v>1</v>
       </c>
       <c r="B64" s="7">
-        <f>B4*'[1]Online VDO'!B4</f>
         <v>0</v>
       </c>
       <c r="C64" s="7">
-        <f>C4*'[1]Online VDO'!C4</f>
         <v>0</v>
       </c>
       <c r="D64" s="7">
-        <f>D4*'[1]Online VDO'!D4</f>
         <v>0</v>
       </c>
       <c r="E64" s="7"/>
@@ -12974,15 +12311,12 @@
         <v>2</v>
       </c>
       <c r="B65" s="7">
-        <f>B5*'[1]Online VDO'!B5</f>
         <v>0</v>
       </c>
       <c r="C65" s="7">
-        <f>C5*'[1]Online VDO'!C5</f>
         <v>0</v>
       </c>
       <c r="D65" s="7">
-        <f>D5*'[1]Online VDO'!D5</f>
         <v>0</v>
       </c>
       <c r="E65" s="7"/>
@@ -13022,15 +12356,12 @@
         <v>3</v>
       </c>
       <c r="B66" s="7">
-        <f>B6*'[1]Online VDO'!B6</f>
         <v>0</v>
       </c>
       <c r="C66" s="7">
-        <f>C6*'[1]Online VDO'!C6</f>
         <v>0</v>
       </c>
       <c r="D66" s="7">
-        <f>D6*'[1]Online VDO'!D6</f>
         <v>0</v>
       </c>
       <c r="E66" s="7"/>
@@ -13070,15 +12401,12 @@
         <v>4</v>
       </c>
       <c r="B67" s="7">
-        <f>B7*'[1]Online VDO'!B7</f>
         <v>0</v>
       </c>
       <c r="C67" s="7">
-        <f>C7*'[1]Online VDO'!C7</f>
         <v>0</v>
       </c>
       <c r="D67" s="7">
-        <f>D7*'[1]Online VDO'!D7</f>
         <v>0</v>
       </c>
       <c r="E67" s="7"/>
@@ -13118,15 +12446,12 @@
         <v>5</v>
       </c>
       <c r="B68" s="7">
-        <f>B8*'[1]Online VDO'!B8</f>
         <v>0</v>
       </c>
       <c r="C68" s="7">
-        <f>C8*'[1]Online VDO'!C8</f>
         <v>0</v>
       </c>
       <c r="D68" s="7">
-        <f>D8*'[1]Online VDO'!D8</f>
         <v>0</v>
       </c>
       <c r="E68" s="7"/>
@@ -13166,15 +12491,12 @@
         <v>6</v>
       </c>
       <c r="B69" s="7">
-        <f>B9*'[1]Online VDO'!B9</f>
         <v>0</v>
       </c>
       <c r="C69" s="7">
-        <f>C9*'[1]Online VDO'!C9</f>
         <v>0</v>
       </c>
       <c r="D69" s="7">
-        <f>D9*'[1]Online VDO'!D9</f>
         <v>0</v>
       </c>
       <c r="E69" s="7"/>
@@ -13214,15 +12536,12 @@
         <v>7</v>
       </c>
       <c r="B70" s="7">
-        <f>B10*'[1]Online VDO'!B10</f>
         <v>0</v>
       </c>
       <c r="C70" s="7">
-        <f>C10*'[1]Online VDO'!C10</f>
         <v>0</v>
       </c>
       <c r="D70" s="7">
-        <f>D10*'[1]Online VDO'!D10</f>
         <v>0</v>
       </c>
       <c r="E70" s="7"/>
@@ -13262,15 +12581,12 @@
         <v>8</v>
       </c>
       <c r="B71" s="7">
-        <f>B11*'[1]Online VDO'!B11</f>
         <v>0</v>
       </c>
       <c r="C71" s="7">
-        <f>C11*'[1]Online VDO'!C11</f>
         <v>0</v>
       </c>
       <c r="D71" s="7">
-        <f>D11*'[1]Online VDO'!D11</f>
         <v>0</v>
       </c>
       <c r="E71" s="7"/>
@@ -13310,15 +12626,12 @@
         <v>9</v>
       </c>
       <c r="B72" s="7">
-        <f>B12*'[1]Online VDO'!B12</f>
         <v>0</v>
       </c>
       <c r="C72" s="7">
-        <f>C12*'[1]Online VDO'!C12</f>
         <v>0</v>
       </c>
       <c r="D72" s="7">
-        <f>D12*'[1]Online VDO'!D12</f>
         <v>0</v>
       </c>
       <c r="E72" s="7"/>
@@ -13358,15 +12671,12 @@
         <v>10</v>
       </c>
       <c r="B73" s="7">
-        <f>B13*'[1]Online VDO'!B13</f>
         <v>0</v>
       </c>
       <c r="C73" s="7">
-        <f>C13*'[1]Online VDO'!C13</f>
         <v>0</v>
       </c>
       <c r="D73" s="7">
-        <f>D13*'[1]Online VDO'!D13</f>
         <v>0</v>
       </c>
       <c r="E73" s="7"/>
@@ -13406,15 +12716,12 @@
         <v>11</v>
       </c>
       <c r="B74" s="7">
-        <f>B14*'[1]Online VDO'!B14</f>
         <v>0</v>
       </c>
       <c r="C74" s="7">
-        <f>C14*'[1]Online VDO'!C14</f>
         <v>0</v>
       </c>
       <c r="D74" s="7">
-        <f>D14*'[1]Online VDO'!D14</f>
         <v>0</v>
       </c>
       <c r="E74" s="7"/>
@@ -13454,15 +12761,12 @@
         <v>12</v>
       </c>
       <c r="B75" s="7">
-        <f>B15*'[1]Online VDO'!B15</f>
         <v>0</v>
       </c>
       <c r="C75" s="7">
-        <f>C15*'[1]Online VDO'!C15</f>
         <v>0</v>
       </c>
       <c r="D75" s="7">
-        <f>D15*'[1]Online VDO'!D15</f>
         <v>0</v>
       </c>
       <c r="E75" s="7"/>
@@ -13502,15 +12806,12 @@
         <v>13</v>
       </c>
       <c r="B76" s="7">
-        <f>B16*'[1]Online VDO'!B16</f>
         <v>0</v>
       </c>
       <c r="C76" s="7">
-        <f>C16*'[1]Online VDO'!C16</f>
         <v>0</v>
       </c>
       <c r="D76" s="7">
-        <f>D16*'[1]Online VDO'!D16</f>
         <v>0</v>
       </c>
       <c r="E76" s="7"/>
@@ -13550,15 +12851,12 @@
         <v>14</v>
       </c>
       <c r="B77" s="7">
-        <f>B17*'[1]Online VDO'!B17</f>
         <v>0</v>
       </c>
       <c r="C77" s="7">
-        <f>C17*'[1]Online VDO'!C17</f>
         <v>0</v>
       </c>
       <c r="D77" s="7">
-        <f>D17*'[1]Online VDO'!D17</f>
         <v>0</v>
       </c>
       <c r="E77" s="7"/>
@@ -13598,15 +12896,12 @@
         <v>15</v>
       </c>
       <c r="B78" s="7">
-        <f>B18*'[1]Online VDO'!B18</f>
         <v>0</v>
       </c>
       <c r="C78" s="7">
-        <f>C18*'[1]Online VDO'!C18</f>
         <v>0</v>
       </c>
       <c r="D78" s="7">
-        <f>D18*'[1]Online VDO'!D18</f>
         <v>0</v>
       </c>
       <c r="E78" s="7"/>
@@ -13646,15 +12941,12 @@
         <v>16</v>
       </c>
       <c r="B79" s="7">
-        <f>B19*'[1]Online VDO'!B19</f>
         <v>0</v>
       </c>
       <c r="C79" s="7">
-        <f>C19*'[1]Online VDO'!C19</f>
         <v>0</v>
       </c>
       <c r="D79" s="7">
-        <f>D19*'[1]Online VDO'!D19</f>
         <v>0</v>
       </c>
       <c r="E79" s="7"/>
@@ -13694,15 +12986,12 @@
         <v>17</v>
       </c>
       <c r="B80" s="7">
-        <f>B20*'[1]Online VDO'!B20</f>
         <v>0</v>
       </c>
       <c r="C80" s="7">
-        <f>C20*'[1]Online VDO'!C20</f>
         <v>0</v>
       </c>
       <c r="D80" s="7">
-        <f>D20*'[1]Online VDO'!D20</f>
         <v>0</v>
       </c>
       <c r="E80" s="7"/>
@@ -13742,15 +13031,12 @@
         <v>18</v>
       </c>
       <c r="B81" s="7">
-        <f>B21*'[1]Online VDO'!B21</f>
         <v>0</v>
       </c>
       <c r="C81" s="7">
-        <f>C21*'[1]Online VDO'!C21</f>
         <v>0</v>
       </c>
       <c r="D81" s="7">
-        <f>D21*'[1]Online VDO'!D21</f>
         <v>0</v>
       </c>
       <c r="E81" s="7"/>
@@ -13790,15 +13076,12 @@
         <v>19</v>
       </c>
       <c r="B82" s="7">
-        <f>B22*'[1]Online VDO'!B22</f>
         <v>0</v>
       </c>
       <c r="C82" s="7">
-        <f>C22*'[1]Online VDO'!C22</f>
         <v>0</v>
       </c>
       <c r="D82" s="7">
-        <f>D22*'[1]Online VDO'!D22</f>
         <v>0</v>
       </c>
       <c r="E82" s="7"/>
@@ -13838,15 +13121,12 @@
         <v>20</v>
       </c>
       <c r="B83" s="7">
-        <f>B23*'[1]Online VDO'!B23</f>
         <v>0</v>
       </c>
       <c r="C83" s="7">
-        <f>C23*'[1]Online VDO'!C23</f>
         <v>0</v>
       </c>
       <c r="D83" s="7">
-        <f>D23*'[1]Online VDO'!D23</f>
         <v>0</v>
       </c>
       <c r="E83" s="7"/>
@@ -13886,15 +13166,12 @@
         <v>21</v>
       </c>
       <c r="B84" s="7">
-        <f>B24*'[1]Online VDO'!B24</f>
         <v>0</v>
       </c>
       <c r="C84" s="7">
-        <f>C24*'[1]Online VDO'!C24</f>
         <v>0</v>
       </c>
       <c r="D84" s="7">
-        <f>D24*'[1]Online VDO'!D24</f>
         <v>0</v>
       </c>
       <c r="E84" s="7"/>
@@ -13934,15 +13211,12 @@
         <v>22</v>
       </c>
       <c r="B85" s="7">
-        <f>B25*'[1]Online VDO'!B25</f>
         <v>0</v>
       </c>
       <c r="C85" s="7">
-        <f>C25*'[1]Online VDO'!C25</f>
         <v>0</v>
       </c>
       <c r="D85" s="7">
-        <f>D25*'[1]Online VDO'!D25</f>
         <v>0</v>
       </c>
       <c r="E85" s="7"/>
@@ -13982,15 +13256,12 @@
         <v>23</v>
       </c>
       <c r="B86" s="7">
-        <f>B26*'[1]Online VDO'!B26</f>
         <v>0</v>
       </c>
       <c r="C86" s="7">
-        <f>C26*'[1]Online VDO'!C26</f>
         <v>0</v>
       </c>
       <c r="D86" s="7">
-        <f>D26*'[1]Online VDO'!D26</f>
         <v>0</v>
       </c>
       <c r="E86" s="7"/>
@@ -14030,15 +13301,12 @@
         <v>24</v>
       </c>
       <c r="B87" s="7">
-        <f>B27*'[1]Online VDO'!B27</f>
         <v>0</v>
       </c>
       <c r="C87" s="7">
-        <f>C27*'[1]Online VDO'!C27</f>
         <v>0</v>
       </c>
       <c r="D87" s="7">
-        <f>D27*'[1]Online VDO'!D27</f>
         <v>0</v>
       </c>
       <c r="E87" s="7"/>
@@ -14078,15 +13346,12 @@
         <v>25</v>
       </c>
       <c r="B88" s="7">
-        <f>B28*'[1]Online VDO'!B28</f>
         <v>0</v>
       </c>
       <c r="C88" s="7">
-        <f>C28*'[1]Online VDO'!C28</f>
         <v>0</v>
       </c>
       <c r="D88" s="7">
-        <f>D28*'[1]Online VDO'!D28</f>
         <v>0</v>
       </c>
       <c r="E88" s="7"/>
@@ -14126,15 +13391,12 @@
         <v>26</v>
       </c>
       <c r="B89" s="7">
-        <f>B29*'[1]Online VDO'!B29</f>
         <v>0</v>
       </c>
       <c r="C89" s="7">
-        <f>C29*'[1]Online VDO'!C29</f>
         <v>0</v>
       </c>
       <c r="D89" s="7">
-        <f>D29*'[1]Online VDO'!D29</f>
         <v>0</v>
       </c>
       <c r="E89" s="7"/>
@@ -14174,15 +13436,12 @@
         <v>27</v>
       </c>
       <c r="B90" s="7">
-        <f>B30*'[1]Online VDO'!B30</f>
         <v>0</v>
       </c>
       <c r="C90" s="7">
-        <f>C30*'[1]Online VDO'!C30</f>
         <v>0</v>
       </c>
       <c r="D90" s="7">
-        <f>D30*'[1]Online VDO'!D30</f>
         <v>0</v>
       </c>
       <c r="E90" s="7"/>
@@ -14222,15 +13481,12 @@
         <v>28</v>
       </c>
       <c r="B91" s="7">
-        <f>B31*'[1]Online VDO'!B31</f>
         <v>0</v>
       </c>
       <c r="C91" s="7">
-        <f>C31*'[1]Online VDO'!C31</f>
         <v>0</v>
       </c>
       <c r="D91" s="7">
-        <f>D31*'[1]Online VDO'!D31</f>
         <v>0</v>
       </c>
       <c r="E91" s="7"/>
@@ -14270,15 +13526,12 @@
         <v>29</v>
       </c>
       <c r="B92" s="7">
-        <f>B32*'[1]Online VDO'!B32</f>
         <v>0</v>
       </c>
       <c r="C92" s="7">
-        <f>C32*'[1]Online VDO'!C32</f>
         <v>0</v>
       </c>
       <c r="D92" s="7">
-        <f>D32*'[1]Online VDO'!D32</f>
         <v>0</v>
       </c>
       <c r="E92" s="7"/>
@@ -14318,15 +13571,12 @@
         <v>30</v>
       </c>
       <c r="B93" s="7">
-        <f>B33*'[1]Online VDO'!B33</f>
         <v>0</v>
       </c>
       <c r="C93" s="7">
-        <f>C33*'[1]Online VDO'!C33</f>
         <v>0</v>
       </c>
       <c r="D93" s="7">
-        <f>D33*'[1]Online VDO'!D33</f>
         <v>0</v>
       </c>
       <c r="E93" s="7"/>
@@ -14366,15 +13616,12 @@
         <v>31</v>
       </c>
       <c r="B94" s="7">
-        <f>B34*'[1]Online VDO'!B34</f>
         <v>0</v>
       </c>
       <c r="C94" s="7">
-        <f>C34*'[1]Online VDO'!C34</f>
         <v>0</v>
       </c>
       <c r="D94" s="7">
-        <f>D34*'[1]Online VDO'!D34</f>
         <v>0</v>
       </c>
       <c r="E94" s="7"/>
@@ -14414,15 +13661,12 @@
         <v>32</v>
       </c>
       <c r="B95" s="7">
-        <f>B35*'[1]Online VDO'!B35</f>
         <v>0</v>
       </c>
       <c r="C95" s="7">
-        <f>C35*'[1]Online VDO'!C35</f>
         <v>0</v>
       </c>
       <c r="D95" s="7">
-        <f>D35*'[1]Online VDO'!D35</f>
         <v>0</v>
       </c>
       <c r="E95" s="7"/>
@@ -14462,15 +13706,12 @@
         <v>33</v>
       </c>
       <c r="B96" s="7">
-        <f>B36*'[1]Online VDO'!B36</f>
         <v>0</v>
       </c>
       <c r="C96" s="7">
-        <f>C36*'[1]Online VDO'!C36</f>
         <v>0</v>
       </c>
       <c r="D96" s="7">
-        <f>D36*'[1]Online VDO'!D36</f>
         <v>0</v>
       </c>
       <c r="E96" s="7"/>
@@ -14510,15 +13751,12 @@
         <v>34</v>
       </c>
       <c r="B97" s="7">
-        <f>B37*'[1]Online VDO'!B37</f>
         <v>0</v>
       </c>
       <c r="C97" s="7">
-        <f>C37*'[1]Online VDO'!C37</f>
         <v>0</v>
       </c>
       <c r="D97" s="7">
-        <f>D37*'[1]Online VDO'!D37</f>
         <v>0</v>
       </c>
       <c r="E97" s="7"/>
@@ -14558,15 +13796,12 @@
         <v>35</v>
       </c>
       <c r="B98" s="7">
-        <f>B38*'[1]Online VDO'!B38</f>
         <v>0</v>
       </c>
       <c r="C98" s="7">
-        <f>C38*'[1]Online VDO'!C38</f>
         <v>0</v>
       </c>
       <c r="D98" s="7">
-        <f>D38*'[1]Online VDO'!D38</f>
         <v>0</v>
       </c>
       <c r="E98" s="7"/>
@@ -14606,15 +13841,12 @@
         <v>36</v>
       </c>
       <c r="B99" s="7">
-        <f>B39*'[1]Online VDO'!B39</f>
         <v>0</v>
       </c>
       <c r="C99" s="7">
-        <f>C39*'[1]Online VDO'!C39</f>
         <v>0</v>
       </c>
       <c r="D99" s="7">
-        <f>D39*'[1]Online VDO'!D39</f>
         <v>0</v>
       </c>
       <c r="E99" s="7"/>
@@ -14654,15 +13886,12 @@
         <v>37</v>
       </c>
       <c r="B100" s="7">
-        <f>B40*'[1]Online VDO'!B40</f>
         <v>0</v>
       </c>
       <c r="C100" s="7">
-        <f>C40*'[1]Online VDO'!C40</f>
         <v>0</v>
       </c>
       <c r="D100" s="7">
-        <f>D40*'[1]Online VDO'!D40</f>
         <v>0</v>
       </c>
       <c r="E100" s="7"/>
@@ -14702,15 +13931,12 @@
         <v>38</v>
       </c>
       <c r="B101" s="7">
-        <f>B41*'[1]Online VDO'!B41</f>
         <v>0</v>
       </c>
       <c r="C101" s="7">
-        <f>C41*'[1]Online VDO'!C41</f>
         <v>0</v>
       </c>
       <c r="D101" s="7">
-        <f>D41*'[1]Online VDO'!D41</f>
         <v>0</v>
       </c>
       <c r="E101" s="7"/>
@@ -14750,15 +13976,12 @@
         <v>39</v>
       </c>
       <c r="B102" s="7">
-        <f>B42*'[1]Online VDO'!B42</f>
         <v>0</v>
       </c>
       <c r="C102" s="7">
-        <f>C42*'[1]Online VDO'!C42</f>
         <v>0</v>
       </c>
       <c r="D102" s="7">
-        <f>D42*'[1]Online VDO'!D42</f>
         <v>0</v>
       </c>
       <c r="E102" s="7"/>
@@ -14798,15 +14021,12 @@
         <v>40</v>
       </c>
       <c r="B103" s="7">
-        <f>B43*'[1]Online VDO'!B43</f>
         <v>0</v>
       </c>
       <c r="C103" s="7">
-        <f>C43*'[1]Online VDO'!C43</f>
         <v>0</v>
       </c>
       <c r="D103" s="7">
-        <f>D43*'[1]Online VDO'!D43</f>
         <v>0</v>
       </c>
       <c r="E103" s="7"/>
@@ -14846,15 +14066,12 @@
         <v>41</v>
       </c>
       <c r="B104" s="7">
-        <f>B44*'[1]Online VDO'!B44</f>
         <v>0</v>
       </c>
       <c r="C104" s="7">
-        <f>C44*'[1]Online VDO'!C44</f>
         <v>0</v>
       </c>
       <c r="D104" s="7">
-        <f>D44*'[1]Online VDO'!D44</f>
         <v>0</v>
       </c>
       <c r="E104" s="7"/>
@@ -14894,15 +14111,12 @@
         <v>42</v>
       </c>
       <c r="B105" s="7">
-        <f>B45*'[1]Online VDO'!B45</f>
         <v>0</v>
       </c>
       <c r="C105" s="7">
-        <f>C45*'[1]Online VDO'!C45</f>
         <v>0</v>
       </c>
       <c r="D105" s="7">
-        <f>D45*'[1]Online VDO'!D45</f>
         <v>0</v>
       </c>
       <c r="E105" s="7"/>
@@ -14942,15 +14156,12 @@
         <v>43</v>
       </c>
       <c r="B106" s="7">
-        <f>B46*'[1]Online VDO'!B46</f>
         <v>0</v>
       </c>
       <c r="C106" s="7">
-        <f>C46*'[1]Online VDO'!C46</f>
         <v>0</v>
       </c>
       <c r="D106" s="7">
-        <f>D46*'[1]Online VDO'!D46</f>
         <v>0</v>
       </c>
       <c r="E106" s="7"/>
@@ -14990,15 +14201,12 @@
         <v>44</v>
       </c>
       <c r="B107" s="7">
-        <f>B47*'[1]Online VDO'!B47</f>
         <v>0</v>
       </c>
       <c r="C107" s="7">
-        <f>C47*'[1]Online VDO'!C47</f>
         <v>0</v>
       </c>
       <c r="D107" s="7">
-        <f>D47*'[1]Online VDO'!D47</f>
         <v>0</v>
       </c>
       <c r="E107" s="7"/>
@@ -15038,15 +14246,12 @@
         <v>45</v>
       </c>
       <c r="B108" s="7">
-        <f>B48*'[1]Online VDO'!B48</f>
         <v>0</v>
       </c>
       <c r="C108" s="7">
-        <f>C48*'[1]Online VDO'!C48</f>
         <v>0</v>
       </c>
       <c r="D108" s="7">
-        <f>D48*'[1]Online VDO'!D48</f>
         <v>0</v>
       </c>
       <c r="E108" s="7"/>
@@ -15086,15 +14291,12 @@
         <v>46</v>
       </c>
       <c r="B109" s="7">
-        <f>B49*'[1]Online VDO'!B49</f>
         <v>0</v>
       </c>
       <c r="C109" s="7">
-        <f>C49*'[1]Online VDO'!C49</f>
         <v>0</v>
       </c>
       <c r="D109" s="7">
-        <f>D49*'[1]Online VDO'!D49</f>
         <v>0</v>
       </c>
       <c r="E109" s="7"/>
@@ -15134,15 +14336,12 @@
         <v>47</v>
       </c>
       <c r="B110" s="7">
-        <f>B50*'[1]Online VDO'!B50</f>
         <v>0</v>
       </c>
       <c r="C110" s="7">
-        <f>C50*'[1]Online VDO'!C50</f>
         <v>0</v>
       </c>
       <c r="D110" s="7">
-        <f>D50*'[1]Online VDO'!D50</f>
         <v>0</v>
       </c>
       <c r="E110" s="7"/>
@@ -15182,15 +14381,12 @@
         <v>48</v>
       </c>
       <c r="B111" s="7">
-        <f>B51*'[1]Online VDO'!B51</f>
         <v>0</v>
       </c>
       <c r="C111" s="7">
-        <f>C51*'[1]Online VDO'!C51</f>
         <v>0</v>
       </c>
       <c r="D111" s="7">
-        <f>D51*'[1]Online VDO'!D51</f>
         <v>0</v>
       </c>
       <c r="E111" s="7"/>
@@ -15230,15 +14426,12 @@
         <v>49</v>
       </c>
       <c r="B112" s="7">
-        <f>B52*'[1]Online VDO'!B52</f>
         <v>0</v>
       </c>
       <c r="C112" s="7">
-        <f>C52*'[1]Online VDO'!C52</f>
         <v>0</v>
       </c>
       <c r="D112" s="7">
-        <f>D52*'[1]Online VDO'!D52</f>
         <v>0</v>
       </c>
       <c r="E112" s="7"/>
@@ -15278,15 +14471,12 @@
         <v>50</v>
       </c>
       <c r="B113" s="7">
-        <f>B53*'[1]Online VDO'!B53</f>
         <v>0</v>
       </c>
       <c r="C113" s="7">
-        <f>C53*'[1]Online VDO'!C53</f>
         <v>0</v>
       </c>
       <c r="D113" s="7">
-        <f>D53*'[1]Online VDO'!D53</f>
         <v>0</v>
       </c>
       <c r="E113" s="7"/>
@@ -15326,15 +14516,12 @@
         <v>51</v>
       </c>
       <c r="B114" s="7">
-        <f>B54*'[1]Online VDO'!B54</f>
         <v>0</v>
       </c>
       <c r="C114" s="7">
-        <f>C54*'[1]Online VDO'!C54</f>
         <v>0</v>
       </c>
       <c r="D114" s="7">
-        <f>D54*'[1]Online VDO'!D54</f>
         <v>0</v>
       </c>
       <c r="E114" s="7"/>
@@ -15374,15 +14561,12 @@
         <v>52</v>
       </c>
       <c r="B115" s="7">
-        <f>B55*'[1]Online VDO'!B55</f>
         <v>0</v>
       </c>
       <c r="C115" s="7">
-        <f>C55*'[1]Online VDO'!C55</f>
         <v>0</v>
       </c>
       <c r="D115" s="7">
-        <f>D55*'[1]Online VDO'!D55</f>
         <v>0</v>
       </c>
       <c r="E115" s="7"/>
@@ -15422,15 +14606,12 @@
         <v>53</v>
       </c>
       <c r="B116" s="7">
-        <f>B56*'[1]Online VDO'!B56</f>
         <v>0</v>
       </c>
       <c r="C116" s="7">
-        <f>C56*'[1]Online VDO'!C56</f>
         <v>0</v>
       </c>
       <c r="D116" s="7">
-        <f>D56*'[1]Online VDO'!D56</f>
         <v>0</v>
       </c>
       <c r="E116" s="7"/>
@@ -15470,15 +14651,12 @@
         <v>54</v>
       </c>
       <c r="B117" s="7">
-        <f>B57*'[1]Online VDO'!B57</f>
         <v>0</v>
       </c>
       <c r="C117" s="7">
-        <f>C57*'[1]Online VDO'!C57</f>
         <v>0</v>
       </c>
       <c r="D117" s="7">
-        <f>D57*'[1]Online VDO'!D57</f>
         <v>0</v>
       </c>
       <c r="E117" s="7"/>
@@ -15518,15 +14696,12 @@
         <v>55</v>
       </c>
       <c r="B118" s="7">
-        <f>B58*'[1]Online VDO'!B58</f>
         <v>0</v>
       </c>
       <c r="C118" s="7">
-        <f>C58*'[1]Online VDO'!C58</f>
         <v>0</v>
       </c>
       <c r="D118" s="7">
-        <f>D58*'[1]Online VDO'!D58</f>
         <v>0</v>
       </c>
       <c r="E118" s="7"/>
